--- a/01.Seminar/block01.xlsx
+++ b/01.Seminar/block01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance\01.Seminar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF11982-B1BE-4A38-808A-0054315B7544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8004054-C643-4AFC-87C0-129A073B5C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task01" sheetId="1" r:id="rId1"/>
@@ -41,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Банк предлагает два варианта размещения депозита в размере 1 млн руб. на 3 года: либо под 15% годовых по схеме сложных процентов (с капитализацией), либо под 20% годовых по схеме простых процентов. Какой вариант выгоднее для заемщика?</t>
   </si>
   <si>
-    <t>Инвестор хочет через 25 лет выйти на пенсию и купить домик в Испании. Он планирует, что для этого нужно будет иметь €350 тыс. Если текущая доходность банковского депозита в Европе равна 3% годовых, то сколько нужно положить в банк сейчас, чтобы через 25 лет получить нужную сумму?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Банк предлагает положить депозит 3 млн руб. на 6 лет, обещая выплатить 1,5 млн руб. процентов в конце срока. Какую процентную ставку предлагает банк, если подразумевается начисление процентов раз в год по сложной ставке? </t>
   </si>
   <si>
@@ -77,12 +74,33 @@
   </si>
   <si>
     <t>FV</t>
+  </si>
+  <si>
+    <t>i-simple</t>
+  </si>
+  <si>
+    <t>FV-simple</t>
+  </si>
+  <si>
+    <t>FV-compounds</t>
+  </si>
+  <si>
+    <t>разница</t>
+  </si>
+  <si>
+    <t>i-compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,12 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,18 +417,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="94.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B2*C2*D2+B2</f>
+        <v>1600000</v>
+      </c>
+      <c r="G2" s="3">
+        <f>FV(E2,C2,0,-B2)</f>
+        <v>1520874.9999999995</v>
+      </c>
+      <c r="H2" s="3">
+        <f>F2-G2</f>
+        <v>79125.000000000466</v>
       </c>
     </row>
   </sheetData>
@@ -422,16 +495,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66A6B9-097C-41F3-9B37-A83F78763AEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +546,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -496,16 +569,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,16 +620,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D046A-1D21-4CC6-AF2D-5FFA53B875F1}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -619,16 +692,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
